--- a/data/trans_camb/IP16B08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B08-Habitat-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>45,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,3</t>
+          <t>15,63</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,3</t>
+          <t>15,63</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,16</t>
+          <t>0,0; 67,19</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>18,53%</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 473,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 204,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 84,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 85,74</t>
+          <t>0,0; 204,79</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-16,97</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -923,22 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>33,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>33,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-11,86</t>
+          <t>15,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,3</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-70,27; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 82,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 67,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-43,45; 0,0</t>
+          <t>0,0; 45,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 46,16</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-11,86%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,07%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-70,27; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,29 +1037,29 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 473,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 204,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,45; 0,0</t>
+          <t>0,0; 84,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 85,74</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,12 +1069,12 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>45,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,63</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,19</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>85,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1165,12 +1165,12 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1208,14 +1208,14 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 204,79</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,97</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,86</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,27; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,45; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-16,97%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-11,86%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,27; 0,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,45; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">

--- a/data/trans_camb/IP16B08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B08-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,19</t>
+          <t>0,0; 65,45</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 204,79</t>
+          <t>0,0; 189,39</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,56</t>
+          <t>0,0; 83,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,11</t>
+          <t>0,0; 67,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,66</t>
+          <t>0,0; 45,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,16</t>
+          <t>0,0; 53,48</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 473,31</t>
+          <t>0,0; 502,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 204,07</t>
+          <t>0,0; 203,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 84,04</t>
+          <t>0,0; 84,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 85,74</t>
+          <t>0,0; 114,98</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-70,27; 0,0</t>
+          <t>-59,15; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-43,45; 0,0</t>
+          <t>-48,51; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-70,27; 0,0</t>
+          <t>-59,15; 0,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-43,45; 0,0</t>
+          <t>-48,51; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 6,91</t>
+          <t>-20,48; 7,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,4</t>
+          <t>0,0; 17,74</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,68</t>
+          <t>0,0; 21,22</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,69</t>
+          <t>0,0; 21,8</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 8,72</t>
+          <t>-7,98; 8,8</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,51; 13,05</t>
+          <t>1,51; 14,06</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-20,34; 7,42</t>
+          <t>-20,82; 7,53</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,61</t>
+          <t>0,0; 21,57</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,08</t>
+          <t>0,0; 26,94</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,09</t>
+          <t>0,0; 27,91</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 9,68</t>
+          <t>-8,26; 9,82</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>1,54; 15,0</t>
+          <t>1,54; 16,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B08-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,45</t>
+          <t>0,0; 65,55</t>
         </is>
       </c>
     </row>
@@ -740,14 +740,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 189,39</t>
+          <t>0,0; 190,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,41</t>
+          <t>0,0; 82,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,09</t>
+          <t>0,0; 67,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,67</t>
+          <t>0,0; 46,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,48</t>
+          <t>0,0; 46,07</t>
         </is>
       </c>
     </row>
@@ -1037,29 +1037,29 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 502,66</t>
+          <t>0,0; 473,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 203,88</t>
+          <t>0,0; 203,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 84,08</t>
+          <t>0,0; 86,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 114,98</t>
+          <t>0,0; 85,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-59,15; 0,0</t>
+          <t>-69,46; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-48,51; 0,0</t>
+          <t>-44,64; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-59,15; 0,0</t>
+          <t>-69,46; 0,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-48,51; 0,0</t>
+          <t>-44,64; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 7,01</t>
+          <t>-20,28; 6,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,74</t>
+          <t>0,0; 16,24</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,22</t>
+          <t>0,0; 20,9</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,8</t>
+          <t>0,0; 22,22</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 8,8</t>
+          <t>-7,08; 8,83</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,51; 14,06</t>
+          <t>1,5; 12,56</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 7,53</t>
+          <t>-20,33; 7,4</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,57</t>
+          <t>0,0; 19,41</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,94</t>
+          <t>0,0; 26,43</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,91</t>
+          <t>0,0; 28,6</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 9,82</t>
+          <t>-7,18; 9,86</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>1,54; 16,35</t>
+          <t>1,52; 14,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B08-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>45,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,63</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,63</t>
+          <t>6,41</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 66,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 71,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 32,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,55</t>
+          <t>0,0; 30,46</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>85,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>6,85%</t>
         </is>
       </c>
     </row>
@@ -725,29 +725,29 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 202,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 249,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 47,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 190,28</t>
+          <t>0,0; 43,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>33,17</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>33,17</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,3</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 82,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 67,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 45,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 46,16</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>49,63%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>49,63%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,07%</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 473,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 204,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,19 +891,19 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 84,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 85,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -923,22 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>33,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>33,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,3</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,07</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1037,29 +1037,29 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 473,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 203,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 86,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 85,42</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1079,17 +1079,17 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>-16,97</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,86</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,27; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,45; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1155,17 +1155,17 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>-16,97%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-11,86%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,27; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,45; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-16,97</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-11,86</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,97</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-69,46; 0,0</t>
+          <t>0,0; 20,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,88; 6,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-44,64; 0,0</t>
+          <t>-5,61; 8,72</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,51; 13,05</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-16,97%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-2,05%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-11,86%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,23%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-69,46; 0,0</t>
+          <t>0,0; 26,08</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,09</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,34; 7,42</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,61</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-44,64; 0,0</t>
+          <t>-5,68; 9,68</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,54; 15,0</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>3,49</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>6,75</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>6,75</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>4,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-20,28; 6,89</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 16,24</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 20,9</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 22,22</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-7,08; 8,83</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>1,5; 12,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-2,05%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>3,62%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>7,24%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>7,24%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>2,17%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>5,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-20,33; 7,4</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 19,41</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 26,43</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 28,6</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-7,18; 9,86</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 14,36</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
